--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05067267991343251</v>
+        <v>0.04997535657674957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985098029338095</v>
+        <v>0.9985303100234737</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07943157866663167</v>
+        <v>0.07552577521082142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992465558792437</v>
+        <v>0.9992836041754001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08682163003685604</v>
+        <v>0.08706643820569389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998824488722593</v>
+        <v>0.9988211741711023</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04997535657674957</v>
+        <v>0.04872884905955236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985303100234737</v>
+        <v>0.9985669676829518</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07552577521082142</v>
+        <v>0.07365379909620806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992836041754001</v>
+        <v>0.9993013607077695</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08706643820569389</v>
+        <v>0.08899196134013831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988211741711023</v>
+        <v>0.9987951037764495</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04872884905955236</v>
+        <v>0.04937411793901165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985669676829518</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9985479914260672</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1627423106237687</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07365379909620806</v>
+        <v>0.07385238581709302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993013607077695</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9992994770237257</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2020842214174208</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08899196134013831</v>
+        <v>0.08729857911332642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987951037764495</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9988180311265089</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2389146089630678</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04937411793901165</v>
+        <v>0.0510073685469512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985479914260672</v>
+        <v>0.9984999603120929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1627423106237687</v>
+        <v>0.1657582300642175</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07385238581709302</v>
+        <v>0.07962121786079235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992994770237257</v>
+        <v>0.9992447570665006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2020842214174208</v>
+        <v>0.209259200321973</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08729857911332642</v>
+        <v>0.08780122833485468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988180311265089</v>
+        <v>0.998811225566325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2389146089630678</v>
+        <v>0.2399893346931228</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0510073685469512</v>
+        <v>0.04896347446528382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984999603120929</v>
+        <v>0.9985600677500517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1657582300642175</v>
+        <v>0.161481537436065</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07962121786079235</v>
+        <v>0.07415511211264601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992447570665006</v>
+        <v>0.9992966055291462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209259200321973</v>
+        <v>0.2077363080320377</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08780122833485468</v>
+        <v>0.09185755673884506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998811225566325</v>
+        <v>0.998756305383627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2399893346931228</v>
+        <v>0.2381653281603272</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.968</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04896347446528382</v>
+        <v>0.05169565791414582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985600677500517</v>
+        <v>0.9984797188960589</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161481537436065</v>
+        <v>0.1644831358361031</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H2" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07415511211264601</v>
+        <v>0.1120267281802314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992966055291462</v>
+        <v>0.9989373762786561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2077363080320377</v>
+        <v>0.2353989495212017</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09185755673884506</v>
+        <v>0.08841978082335288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998756305383627</v>
+        <v>0.998802850747451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2381653281603272</v>
+        <v>0.2404892586909316</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Nefropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05169565791414582</v>
+        <v>0.04756558637480458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984797188960589</v>
+        <v>0.9986011772539274</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1644831358361031</v>
+        <v>0.1602021758772121</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1120267281802314</v>
+        <v>0.07600487841318371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989373762786561</v>
+        <v>0.9992790596668165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2353989495212017</v>
+        <v>0.205298418927665</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08841978082335288</v>
+        <v>0.08843381759302323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998802850747451</v>
+        <v>0.9988026606982543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2404892586909316</v>
+        <v>0.2397858522798944</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
   </sheetData>
